--- a/biology/Zoologie/Harpadon_microchir/Harpadon_microchir.xlsx
+++ b/biology/Zoologie/Harpadon_microchir/Harpadon_microchir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpadon microchir est une espèce de poissons de la famille des Synodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpadon microchir a été décrite pour la première fois en 1878 par le zoologiste allemand Albert Günther (1830-1914)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpadon microchir a été décrite pour la première fois en 1878 par le zoologiste allemand Albert Günther (1830-1914),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se croise surtout le long des côtes asiatiques, du large de la Corée du Nord dans l'Océan Pacifique aux côtes sud-indiennes. Elle peut également être croisée le long des côtes indonésiennes ainsi que des côtes australiennes.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpadon microchir peut mesurer jusqu'à 70 cm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpadon microchir peut mesurer jusqu'à 70 cm.
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prédateurs
-Les juvéniles et les alevins sont souvent victimes de cannibalisme de la part des individus adultes, qui de leur côté sont la proie des sabres.
-Proies
-Harpadon microchir se nourrit principalement de poissons osseux comme les Bregmaceros, Polymixia japonica, de petits crustacés comme les Plesionika ou les Sergia[3].
-L'espèce fait également preuve de cannibalisme envers les alevins et les juvéniles.
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les juvéniles et les alevins sont souvent victimes de cannibalisme de la part des individus adultes, qui de leur côté sont la proie des sabres.
 </t>
         </is>
       </c>
@@ -636,10 +656,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Proies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpadon microchir se nourrit principalement de poissons osseux comme les Bregmaceros, Polymixia japonica, de petits crustacés comme les Plesionika ou les Sergia.
+L'espèce fait également preuve de cannibalisme envers les alevins et les juvéniles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Harpadon_microchir</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpadon_microchir</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
